--- a/data/financial_statements/soci/VRTX.xlsx
+++ b/data/financial_statements/soci/VRTX.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -137,9 +254,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -192,12 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -502,144 +613,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>2269000000</v>
+        <v>2334300000</v>
       </c>
       <c r="C2">
-        <v>2151000000</v>
+        <v>2196200000</v>
       </c>
       <c r="D2">
-        <v>2077000000</v>
+        <v>2097500000</v>
       </c>
       <c r="E2">
-        <v>2063000000</v>
+        <v>2072600000</v>
       </c>
       <c r="F2">
-        <v>1989000000</v>
+        <v>1984100000</v>
       </c>
       <c r="G2">
         <v>1793400000</v>
@@ -745,23 +856,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>0.1408</v>
+        <v>0.1765</v>
       </c>
       <c r="C3">
-        <v>0.1994</v>
+        <v>0.2246</v>
       </c>
       <c r="D3">
-        <v>0.2045</v>
+        <v>0.2164</v>
       </c>
       <c r="E3">
-        <v>0.2673</v>
+        <v>0.2732</v>
       </c>
       <c r="F3">
-        <v>0.293</v>
+        <v>0.2898</v>
       </c>
       <c r="G3">
         <v>0.1764</v>
@@ -867,23 +978,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>289000000</v>
+        <v>289400000</v>
       </c>
       <c r="C4">
-        <v>262000000</v>
+        <v>261800000</v>
       </c>
       <c r="D4">
-        <v>246000000</v>
+        <v>245800000</v>
       </c>
       <c r="E4">
-        <v>247000000</v>
+        <v>247400000</v>
       </c>
       <c r="F4">
-        <v>237000000</v>
+        <v>236500000</v>
       </c>
       <c r="G4">
         <v>228000000</v>
@@ -989,23 +1100,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>1980000000</v>
+        <v>2044900000</v>
       </c>
       <c r="C5">
-        <v>1889000000</v>
+        <v>1934400000</v>
       </c>
       <c r="D5">
-        <v>1832000000</v>
+        <v>1851700000</v>
       </c>
       <c r="E5">
-        <v>1816000000</v>
+        <v>1825200000</v>
       </c>
       <c r="F5">
-        <v>1753000000</v>
+        <v>1747600000</v>
       </c>
       <c r="G5">
         <v>1565400000</v>
@@ -1111,23 +1222,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>674000000</v>
+        <v>645000000</v>
       </c>
       <c r="C6">
-        <v>662000000</v>
+        <v>600100000</v>
       </c>
       <c r="D6">
-        <v>603000000</v>
+        <v>603100000</v>
       </c>
       <c r="E6">
-        <v>692000000</v>
+        <v>1679400000</v>
       </c>
       <c r="F6">
-        <v>494000000</v>
+        <v>467000000</v>
       </c>
       <c r="G6">
         <v>448700000</v>
@@ -1233,8 +1344,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>246800000</v>
@@ -1249,7 +1360,7 @@
         <v>255200000</v>
       </c>
       <c r="F7">
-        <v>198000000</v>
+        <v>198200000</v>
       </c>
       <c r="G7">
         <v>194600000</v>
@@ -1355,8 +1466,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>1126700000</v>
@@ -1477,8 +1588,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>14000000</v>
@@ -1518,23 +1629,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>46000000</v>
+        <v>13700000</v>
       </c>
       <c r="C10">
-        <v>11000000</v>
+        <v>14600000</v>
       </c>
       <c r="D10">
-        <v>2000000</v>
+        <v>14900000</v>
       </c>
       <c r="E10">
-        <v>1000000</v>
+        <v>15100000</v>
       </c>
       <c r="F10">
-        <v>1000000</v>
+        <v>15200000</v>
       </c>
       <c r="G10">
         <v>15500000</v>
@@ -1640,23 +1751,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>91000000</v>
+        <v>49700000</v>
       </c>
       <c r="C11">
-        <v>103000000</v>
+        <v>-81900000</v>
       </c>
       <c r="D11">
-        <v>108000000</v>
+        <v>-86100000</v>
       </c>
       <c r="E11">
-        <v>60000000</v>
+        <v>-6800000</v>
       </c>
       <c r="F11">
-        <v>-54000000</v>
+        <v>28300000</v>
       </c>
       <c r="G11">
         <v>-6300000</v>
@@ -1762,23 +1873,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>1176000000</v>
+        <v>1176400000</v>
       </c>
       <c r="C12">
-        <v>1024000000</v>
+        <v>1024400000</v>
       </c>
       <c r="D12">
-        <v>955000000</v>
+        <v>954800000</v>
       </c>
       <c r="E12">
-        <v>871000000</v>
+        <v>870899800</v>
       </c>
       <c r="F12">
-        <v>1083000000</v>
+        <v>1082800000</v>
       </c>
       <c r="G12">
         <v>-44200000</v>
@@ -1884,23 +1995,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>246000000</v>
+        <v>245900000</v>
       </c>
       <c r="C13">
-        <v>214000000</v>
+        <v>213900000</v>
       </c>
       <c r="D13">
-        <v>193000000</v>
+        <v>192700000</v>
       </c>
       <c r="E13">
-        <v>101000000</v>
+        <v>100800000</v>
       </c>
       <c r="F13">
-        <v>231000000</v>
+        <v>230900000</v>
       </c>
       <c r="G13">
         <v>-111200000</v>
@@ -2006,8 +2117,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>930500000</v>
@@ -2128,8 +2239,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -2157,8 +2268,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="Q16">
         <v>-25431000</v>
@@ -2225,23 +2336,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>931000000</v>
+        <v>930500000</v>
       </c>
       <c r="C17">
-        <v>811000000</v>
+        <v>810500000</v>
       </c>
       <c r="D17">
-        <v>762000000</v>
+        <v>762100000</v>
       </c>
       <c r="E17">
-        <v>770000000</v>
+        <v>770100100</v>
       </c>
       <c r="F17">
-        <v>852000000</v>
+        <v>851900000</v>
       </c>
       <c r="G17">
         <v>67000000</v>
@@ -2347,23 +2458,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>3.59</v>
+        <v>3.63</v>
       </c>
       <c r="C18">
-        <v>3.13</v>
+        <v>3.17</v>
       </c>
       <c r="D18">
-        <v>2.96</v>
+        <v>2.99</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>3.02</v>
       </c>
       <c r="F18">
-        <v>3.28</v>
+        <v>3.3</v>
       </c>
       <c r="G18">
         <v>0.26</v>
@@ -2469,8 +2580,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>3.59</v>
@@ -2591,23 +2702,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>257000000</v>
+        <v>256500000</v>
       </c>
       <c r="C20">
-        <v>256000000</v>
+        <v>255900000</v>
       </c>
       <c r="D20">
-        <v>255000000</v>
+        <v>255100000</v>
       </c>
       <c r="E20">
-        <v>255000000</v>
+        <v>257700000</v>
       </c>
       <c r="F20">
-        <v>258000000</v>
+        <v>257900000</v>
       </c>
       <c r="G20">
         <v>259000000</v>
@@ -2713,23 +2824,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>260000000</v>
+        <v>259500000</v>
       </c>
       <c r="C21">
-        <v>259000000</v>
+        <v>258700000</v>
       </c>
       <c r="D21">
-        <v>258000000</v>
+        <v>257900000</v>
       </c>
       <c r="E21">
-        <v>257000000</v>
+        <v>259900000</v>
       </c>
       <c r="F21">
-        <v>260000000</v>
+        <v>259700000</v>
       </c>
       <c r="G21">
         <v>261000000</v>
@@ -2835,23 +2946,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>0.8726</v>
+        <v>0.876</v>
       </c>
       <c r="C22">
-        <v>0.8782</v>
+        <v>0.8808</v>
       </c>
       <c r="D22">
-        <v>0.882</v>
+        <v>0.8828</v>
       </c>
       <c r="E22">
-        <v>0.8803</v>
+        <v>0.8806</v>
       </c>
       <c r="F22">
-        <v>0.8813</v>
+        <v>0.8808</v>
       </c>
       <c r="G22">
         <v>0.8729</v>
@@ -2957,23 +3068,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>0.4966</v>
+        <v>0.4827</v>
       </c>
       <c r="C23">
-        <v>0.5143</v>
+        <v>0.5037</v>
       </c>
       <c r="D23">
-        <v>0.5012</v>
+        <v>0.4963</v>
       </c>
       <c r="E23">
-        <v>0.4254</v>
+        <v>0.4235</v>
       </c>
       <c r="F23">
-        <v>0.5302</v>
+        <v>0.5315</v>
       </c>
       <c r="G23">
         <v>-0.0211</v>
@@ -3079,23 +3190,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>0.5183</v>
+        <v>0.504</v>
       </c>
       <c r="C24">
-        <v>0.4761</v>
+        <v>0.4664</v>
       </c>
       <c r="D24">
-        <v>0.4598</v>
+        <v>0.4552</v>
       </c>
       <c r="E24">
-        <v>0.4222</v>
+        <v>0.4202</v>
       </c>
       <c r="F24">
-        <v>0.5445</v>
+        <v>0.5457</v>
       </c>
       <c r="G24">
         <v>-0.0246</v>
@@ -3201,23 +3312,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>0.4103</v>
+        <v>0.3986</v>
       </c>
       <c r="C25">
-        <v>0.377</v>
+        <v>0.369</v>
       </c>
       <c r="D25">
-        <v>0.3669</v>
+        <v>0.3633</v>
       </c>
       <c r="E25">
-        <v>0.3732</v>
+        <v>0.3716</v>
       </c>
       <c r="F25">
-        <v>0.4284</v>
+        <v>0.4294</v>
       </c>
       <c r="G25">
         <v>0.0374</v>
@@ -3323,23 +3434,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>1096000000</v>
+        <v>1163400000</v>
       </c>
       <c r="C26">
-        <v>1049000000</v>
+        <v>1143600000</v>
       </c>
       <c r="D26">
-        <v>1049000000</v>
+        <v>1076800000</v>
       </c>
       <c r="E26">
-        <v>903000000</v>
+        <v>911500200</v>
       </c>
       <c r="F26">
-        <v>1093000000</v>
+        <v>1086200000</v>
       </c>
       <c r="G26">
         <v>-6600000</v>
@@ -3445,8 +3556,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>1126700000</v>
@@ -3567,8 +3678,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>930500000</v>
@@ -3689,8 +3800,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="AG29">
         <v>-209000</v>
@@ -3712,23 +3823,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>931000000</v>
+        <v>930500000</v>
       </c>
       <c r="C30">
-        <v>811000000</v>
+        <v>810500000</v>
       </c>
       <c r="D30">
-        <v>762000000</v>
+        <v>762100000</v>
       </c>
       <c r="E30">
-        <v>770000000</v>
+        <v>770099900</v>
       </c>
       <c r="F30">
-        <v>852000000</v>
+        <v>851900000</v>
       </c>
       <c r="G30">
         <v>67000000</v>
@@ -3834,8 +3945,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>3.6277</v>
@@ -3956,8 +4067,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>3.5857</v>
@@ -4078,8 +4189,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="AG33">
         <v>-0.0009</v>
@@ -4101,8 +4212,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="AG34">
         <v>-0.0009</v>
@@ -4124,8 +4235,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>3.6277</v>
@@ -4246,8 +4357,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>3.5857</v>
@@ -4368,8 +4479,8 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
         <v>259500000</v>
@@ -4490,23 +4601,23 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
-        <v>0.483</v>
+        <v>0.4984</v>
       </c>
       <c r="C38">
-        <v>0.4877</v>
+        <v>0.5207000000000001</v>
       </c>
       <c r="D38">
-        <v>0.5051</v>
+        <v>0.5134</v>
       </c>
       <c r="E38">
-        <v>0.4377</v>
+        <v>0.4398</v>
       </c>
       <c r="F38">
-        <v>0.5495</v>
+        <v>0.5475</v>
       </c>
       <c r="G38">
         <v>-0.0037</v>
@@ -4612,23 +4723,23 @@
       </c>
     </row>
     <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B39">
-        <v>0.4211</v>
+        <v>0.4093</v>
       </c>
       <c r="C39">
-        <v>0.5299</v>
+        <v>0.519</v>
       </c>
       <c r="D39">
-        <v>0.4604</v>
+        <v>0.4559</v>
       </c>
       <c r="E39">
-        <v>0.4823</v>
+        <v>0.4801</v>
       </c>
       <c r="F39">
-        <v>0.4662</v>
+        <v>0.4673</v>
       </c>
       <c r="G39">
         <v>-0.1114</v>
